--- a/dataregiones.xlsx
+++ b/dataregiones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/minsa-dashboards/MINSA-dashboard.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089BC184-B46B-BF43-BA50-3FACE7FB0E98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A8BBBD-852F-444B-A152-E57E54DF14C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{F4FCB0F0-5586-0C48-AD96-2009E43BD55A}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>LIMA REGION</t>
   </si>
   <si>
-    <t>LIMA</t>
-  </si>
-  <si>
     <t>LORETO</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>UCAYALI</t>
+  </si>
+  <si>
+    <t>LIMA METROPOLITANA</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,7 +668,7 @@
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>2672.28</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>368851.95</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>85300.54</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>15733.97</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>25319.59</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>35892.49</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>71999</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>51253.31</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>16075.89</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>4669.2</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>102410.55</v>
